--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/L1cam-Ptprz1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H2">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J2">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.09677100000000001</v>
+        <v>0.138766</v>
       </c>
       <c r="N2">
-        <v>0.290313</v>
+        <v>0.416298</v>
       </c>
       <c r="O2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P2">
-        <v>0.02354936372111632</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q2">
-        <v>1.150328908861</v>
+        <v>0.9162964595819999</v>
       </c>
       <c r="R2">
-        <v>10.352960179749</v>
+        <v>8.246668136238</v>
       </c>
       <c r="S2">
-        <v>0.0140524453005335</v>
+        <v>0.006968461627416556</v>
       </c>
       <c r="T2">
-        <v>0.0140524453005335</v>
+        <v>0.006968461627416558</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H3">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J3">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.162484</v>
       </c>
       <c r="O3">
-        <v>0.01318023931019921</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P3">
-        <v>0.01318023931019921</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q3">
-        <v>0.6438225033924444</v>
+        <v>0.357636870556</v>
       </c>
       <c r="R3">
-        <v>5.794402530531999</v>
+        <v>3.218731835004</v>
       </c>
       <c r="S3">
-        <v>0.007864951008779784</v>
+        <v>0.002719838959277132</v>
       </c>
       <c r="T3">
-        <v>0.007864951008779783</v>
+        <v>0.002719838959277133</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.88712433333333</v>
+        <v>6.603177</v>
       </c>
       <c r="H4">
-        <v>35.661373</v>
+        <v>19.809531</v>
       </c>
       <c r="I4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J4">
-        <v>0.5967229292030898</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.958350666666666</v>
+        <v>10.002366</v>
       </c>
       <c r="N4">
-        <v>11.875052</v>
+        <v>30.007098</v>
       </c>
       <c r="O4">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P4">
-        <v>0.9632703969686844</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q4">
-        <v>47.05340652959955</v>
+        <v>66.047393116782</v>
       </c>
       <c r="R4">
-        <v>423.4806587663959</v>
+        <v>594.4265380510379</v>
       </c>
       <c r="S4">
-        <v>0.5748055328937764</v>
+        <v>0.5022923746045574</v>
       </c>
       <c r="T4">
-        <v>0.5748055328937764</v>
+        <v>0.5022923746045576</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3785896666666667</v>
+        <v>6.603177</v>
       </c>
       <c r="H5">
-        <v>1.135769</v>
+        <v>19.809531</v>
       </c>
       <c r="I5">
-        <v>0.01900486009268527</v>
+        <v>0.5135477412645301</v>
       </c>
       <c r="J5">
-        <v>0.01900486009268527</v>
+        <v>0.5135477412645302</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.09677100000000001</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N5">
-        <v>0.290313</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O5">
-        <v>0.02354936372111632</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="P5">
-        <v>0.02354936372111632</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="Q5">
-        <v>0.036636500633</v>
+        <v>0.206056540403</v>
       </c>
       <c r="R5">
-        <v>0.3297285056970001</v>
+        <v>1.854508863627</v>
       </c>
       <c r="S5">
-        <v>0.0004475523627915739</v>
+        <v>0.001567066073278891</v>
       </c>
       <c r="T5">
-        <v>0.0004475523627915739</v>
+        <v>0.001567066073278891</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,10 +791,10 @@
         <v>1.135769</v>
       </c>
       <c r="I6">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J6">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.05416133333333333</v>
+        <v>0.138766</v>
       </c>
       <c r="N6">
-        <v>0.162484</v>
+        <v>0.416298</v>
       </c>
       <c r="O6">
-        <v>0.01318023931019921</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P6">
-        <v>0.01318023931019921</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q6">
-        <v>0.02050492113288889</v>
+        <v>0.05253537368466667</v>
       </c>
       <c r="R6">
-        <v>0.184544290196</v>
+        <v>0.472818363162</v>
       </c>
       <c r="S6">
-        <v>0.0002504886040784467</v>
+        <v>0.0003995330679009652</v>
       </c>
       <c r="T6">
-        <v>0.0002504886040784466</v>
+        <v>0.0003995330679009653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,45 +853,45 @@
         <v>1.135769</v>
       </c>
       <c r="I7">
-        <v>0.01900486009268527</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J7">
-        <v>0.01900486009268527</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>3.958350666666666</v>
+        <v>0.05416133333333333</v>
       </c>
       <c r="N7">
-        <v>11.875052</v>
+        <v>0.162484</v>
       </c>
       <c r="O7">
-        <v>0.9632703969686844</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P7">
-        <v>0.9632703969686844</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q7">
-        <v>1.498590659443111</v>
+        <v>0.02050492113288889</v>
       </c>
       <c r="R7">
-        <v>13.487315934988</v>
+        <v>0.184544290196</v>
       </c>
       <c r="S7">
-        <v>0.01830681912581525</v>
+        <v>0.0001559405305930377</v>
       </c>
       <c r="T7">
-        <v>0.01830681912581525</v>
+        <v>0.0001559405305930378</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>3.531764333333333</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H8">
-        <v>10.595293</v>
+        <v>1.135769</v>
       </c>
       <c r="I8">
-        <v>0.1772913868101768</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J8">
-        <v>0.1772913868101768</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.09677100000000001</v>
+        <v>10.002366</v>
       </c>
       <c r="N8">
-        <v>0.290313</v>
+        <v>30.007098</v>
       </c>
       <c r="O8">
-        <v>0.02354936372111632</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P8">
-        <v>0.02354936372111632</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q8">
-        <v>0.3417723663010001</v>
+        <v>3.786792409818</v>
       </c>
       <c r="R8">
-        <v>3.075951296709</v>
+        <v>34.081131688362</v>
       </c>
       <c r="S8">
-        <v>0.004175099352613976</v>
+        <v>0.02879866807610154</v>
       </c>
       <c r="T8">
-        <v>0.004175099352613976</v>
+        <v>0.02879866807610154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>3.531764333333333</v>
+        <v>0.3785896666666667</v>
       </c>
       <c r="H9">
-        <v>10.595293</v>
+        <v>1.135769</v>
       </c>
       <c r="I9">
-        <v>0.1772913868101768</v>
+        <v>0.02944398858046029</v>
       </c>
       <c r="J9">
-        <v>0.1772913868101768</v>
+        <v>0.0294439885804603</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05416133333333333</v>
+        <v>0.03120566666666667</v>
       </c>
       <c r="N9">
-        <v>0.162484</v>
+        <v>0.09361700000000001</v>
       </c>
       <c r="O9">
-        <v>0.01318023931019921</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="P9">
-        <v>0.01318023931019921</v>
+        <v>0.003051451593225274</v>
       </c>
       <c r="Q9">
-        <v>0.1912850653124444</v>
+        <v>0.01181414294144444</v>
       </c>
       <c r="R9">
-        <v>1.721565587812</v>
+        <v>0.106327286473</v>
       </c>
       <c r="S9">
-        <v>0.002336742905795225</v>
+        <v>8.984690586475233E-05</v>
       </c>
       <c r="T9">
-        <v>0.002336742905795225</v>
+        <v>8.984690586475233E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.531764333333333</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H10">
-        <v>10.595293</v>
+        <v>10.324462</v>
       </c>
       <c r="I10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J10">
-        <v>0.1772913868101768</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>3.958350666666666</v>
+        <v>0.138766</v>
       </c>
       <c r="N10">
-        <v>11.875052</v>
+        <v>0.416298</v>
       </c>
       <c r="O10">
-        <v>0.9632703969686844</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="P10">
-        <v>0.9632703969686844</v>
+        <v>0.01356925767068476</v>
       </c>
       <c r="Q10">
-        <v>13.97996170335955</v>
+        <v>0.4775614312973334</v>
       </c>
       <c r="R10">
-        <v>125.819655330236</v>
+        <v>4.298052881676</v>
       </c>
       <c r="S10">
-        <v>0.1707795445517676</v>
+        <v>0.003631868784309956</v>
       </c>
       <c r="T10">
-        <v>0.1707795445517676</v>
+        <v>0.003631868784309958</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.123197999999999</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H11">
-        <v>12.369594</v>
+        <v>10.324462</v>
       </c>
       <c r="I11">
-        <v>0.2069808238940481</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J11">
-        <v>0.2069808238940482</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1113,33 +1113,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.09677100000000001</v>
+        <v>0.05416133333333333</v>
       </c>
       <c r="N11">
-        <v>0.290313</v>
+        <v>0.162484</v>
       </c>
       <c r="O11">
-        <v>0.02354936372111632</v>
+        <v>0.00529617548814441</v>
       </c>
       <c r="P11">
-        <v>0.02354936372111632</v>
+        <v>0.005296175488144411</v>
       </c>
       <c r="Q11">
-        <v>0.399005993658</v>
+        <v>0.1863955426231111</v>
       </c>
       <c r="R11">
-        <v>3.591053942922001</v>
+        <v>1.677559883608</v>
       </c>
       <c r="S11">
-        <v>0.004874266705177262</v>
+        <v>0.001417543604701005</v>
       </c>
       <c r="T11">
-        <v>0.004874266705177263</v>
+        <v>0.001417543604701005</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,51 +1157,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.123197999999999</v>
+        <v>3.441487333333333</v>
       </c>
       <c r="H12">
-        <v>12.369594</v>
+        <v>10.324462</v>
       </c>
       <c r="I12">
-        <v>0.2069808238940481</v>
+        <v>0.2676541983690312</v>
       </c>
       <c r="J12">
-        <v>0.2069808238940482</v>
+        <v>0.2676541983690313</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.05416133333333333</v>
+        <v>10.002366</v>
       </c>
       <c r="N12">
-        <v>0.162484</v>
+        <v>30.007098</v>
       </c>
       <c r="O12">
-        <v>0.01318023931019921</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="P12">
-        <v>0.01318023931019921</v>
+        <v>0.9780831152479456</v>
       </c>
       <c r="Q12">
-        <v>0.2233179012773333</v>
+        <v>34.423015892364</v>
       </c>
       <c r="R12">
-        <v>2.009861111496</v>
+        <v>309.807143031276</v>
       </c>
       <c r="S12">
-        <v>0.002728056791545753</v>
+        <v>0.2617880521499736</v>
       </c>
       <c r="T12">
-        <v>0.002728056791545753</v>
+        <v>0.2617880521499737</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>3.441487333333333</v>
+      </c>
+      <c r="H13">
+        <v>10.324462</v>
+      </c>
+      <c r="I13">
+        <v>0.2676541983690312</v>
+      </c>
+      <c r="J13">
+        <v>0.2676541983690313</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N13">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O13">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="P13">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="Q13">
+        <v>0.1073939065615556</v>
+      </c>
+      <c r="R13">
+        <v>0.9665451590540001</v>
+      </c>
+      <c r="S13">
+        <v>0.0008167338300466137</v>
+      </c>
+      <c r="T13">
+        <v>0.0008167338300466139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.434707333333333</v>
+      </c>
+      <c r="H14">
+        <v>7.304122</v>
+      </c>
+      <c r="I14">
+        <v>0.1893540717859783</v>
+      </c>
+      <c r="J14">
+        <v>0.1893540717859783</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.138766</v>
+      </c>
+      <c r="N14">
+        <v>0.416298</v>
+      </c>
+      <c r="O14">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="P14">
+        <v>0.01356925767068476</v>
+      </c>
+      <c r="Q14">
+        <v>0.3378545978173333</v>
+      </c>
+      <c r="R14">
+        <v>3.040691380356</v>
+      </c>
+      <c r="S14">
+        <v>0.002569394191057278</v>
+      </c>
+      <c r="T14">
+        <v>0.002569394191057279</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.434707333333333</v>
+      </c>
+      <c r="H15">
+        <v>7.304122</v>
+      </c>
+      <c r="I15">
+        <v>0.1893540717859783</v>
+      </c>
+      <c r="J15">
+        <v>0.1893540717859783</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.05416133333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.162484</v>
+      </c>
+      <c r="O15">
+        <v>0.00529617548814441</v>
+      </c>
+      <c r="P15">
+        <v>0.005296175488144411</v>
+      </c>
+      <c r="Q15">
+        <v>0.1318669954497778</v>
+      </c>
+      <c r="R15">
+        <v>1.186802959048</v>
+      </c>
+      <c r="S15">
+        <v>0.001002852393573235</v>
+      </c>
+      <c r="T15">
+        <v>0.001002852393573236</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.123197999999999</v>
-      </c>
-      <c r="H13">
-        <v>12.369594</v>
-      </c>
-      <c r="I13">
-        <v>0.2069808238940481</v>
-      </c>
-      <c r="J13">
-        <v>0.2069808238940482</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>3.958350666666666</v>
-      </c>
-      <c r="N13">
-        <v>11.875052</v>
-      </c>
-      <c r="O13">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="P13">
-        <v>0.9632703969686844</v>
-      </c>
-      <c r="Q13">
-        <v>16.32106355209866</v>
-      </c>
-      <c r="R13">
-        <v>146.889571968888</v>
-      </c>
-      <c r="S13">
-        <v>0.1993785003973251</v>
-      </c>
-      <c r="T13">
-        <v>0.1993785003973252</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.434707333333333</v>
+      </c>
+      <c r="H16">
+        <v>7.304122</v>
+      </c>
+      <c r="I16">
+        <v>0.1893540717859783</v>
+      </c>
+      <c r="J16">
+        <v>0.1893540717859783</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10.002366</v>
+      </c>
+      <c r="N16">
+        <v>30.007098</v>
+      </c>
+      <c r="O16">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="P16">
+        <v>0.9780831152479456</v>
+      </c>
+      <c r="Q16">
+        <v>24.352833850884</v>
+      </c>
+      <c r="R16">
+        <v>219.175504657956</v>
+      </c>
+      <c r="S16">
+        <v>0.1852040204173128</v>
+      </c>
+      <c r="T16">
+        <v>0.1852040204173128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.434707333333333</v>
+      </c>
+      <c r="H17">
+        <v>7.304122</v>
+      </c>
+      <c r="I17">
+        <v>0.1893540717859783</v>
+      </c>
+      <c r="J17">
+        <v>0.1893540717859783</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.03120566666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.09361700000000001</v>
+      </c>
+      <c r="O17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="P17">
+        <v>0.003051451593225274</v>
+      </c>
+      <c r="Q17">
+        <v>0.07597666547488889</v>
+      </c>
+      <c r="R17">
+        <v>0.683789989274</v>
+      </c>
+      <c r="S17">
+        <v>0.0005778047840350163</v>
+      </c>
+      <c r="T17">
+        <v>0.0005778047840350164</v>
       </c>
     </row>
   </sheetData>
